--- a/salarySheet.xlsx
+++ b/salarySheet.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -79,9 +79,6 @@
     <t>Elias</t>
   </si>
   <si>
-    <t>Farhan</t>
-  </si>
-  <si>
     <t>Goni</t>
   </si>
   <si>
@@ -107,6 +104,21 @@
   </si>
   <si>
     <t>Equal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geater than or equal </t>
+  </si>
+  <si>
+    <t>Less than or equal</t>
+  </si>
+  <si>
+    <t>Not between</t>
+  </si>
+  <si>
+    <t>Not equal</t>
+  </si>
+  <si>
+    <t>Borrhan</t>
   </si>
 </sst>
 </file>
@@ -115,7 +127,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="00"/>
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -168,50 +180,104 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="52">
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="00"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+  <dxfs count="33">
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor rgb="FFFFC000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor rgb="FFFFC000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill patternType="lightTrellis">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -225,11 +291,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -255,6 +321,36 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -304,6 +400,28 @@
       </fill>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="00"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -325,6 +443,36 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -350,316 +498,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1099,7 +937,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Farhan</c:v>
+                  <c:v>Borrhan</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1425,12 +1263,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-568519712"/>
-        <c:axId val="-568520256"/>
+        <c:axId val="746998640"/>
+        <c:axId val="746999184"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-568519712"/>
+        <c:axId val="746998640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1467,7 +1305,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-568520256"/>
+        <c:crossAx val="746999184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1475,7 +1313,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-568520256"/>
+        <c:axId val="746999184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1526,7 +1364,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-568519712"/>
+        <c:crossAx val="746998640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2145,16 +1983,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>942975</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2177,14 +2015,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="C7:G17" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="C7:G17" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="C7:G17"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Sl No" dataDxfId="6"/>
-    <tableColumn id="2" name="Name" dataDxfId="5"/>
-    <tableColumn id="3" name="Age " dataDxfId="4"/>
-    <tableColumn id="4" name="Salary" dataDxfId="3"/>
-    <tableColumn id="5" name="District" dataDxfId="2"/>
+    <tableColumn id="1" name="Sl No" dataDxfId="22"/>
+    <tableColumn id="2" name="Name" dataDxfId="21"/>
+    <tableColumn id="3" name="Age " dataDxfId="20"/>
+    <tableColumn id="4" name="Salary" dataDxfId="19"/>
+    <tableColumn id="5" name="District" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2479,8 +2317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:G17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2494,38 +2332,38 @@
   <sheetData>
     <row r="2" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
     </row>
     <row r="3" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
     </row>
     <row r="4" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
     </row>
     <row r="5" spans="3:13" x14ac:dyDescent="0.25">
       <c r="J5" s="2"/>
@@ -2553,10 +2391,10 @@
         <v>5</v>
       </c>
       <c r="J7" s="2"/>
-      <c r="K7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" s="8">
+      <c r="K7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="6">
         <v>75000</v>
       </c>
     </row>
@@ -2577,10 +2415,10 @@
         <v>6</v>
       </c>
       <c r="J8" s="2"/>
-      <c r="K8" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L8" s="8"/>
+      <c r="K8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="6"/>
     </row>
     <row r="9" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C9" s="4">
@@ -2599,11 +2437,11 @@
         <v>7</v>
       </c>
       <c r="J9" s="2"/>
-      <c r="K9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8">
+      <c r="K9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6">
         <v>80000</v>
       </c>
     </row>
@@ -2624,10 +2462,10 @@
         <v>8</v>
       </c>
       <c r="J10" s="2"/>
-      <c r="K10" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L10" s="8">
+      <c r="K10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" s="6">
         <v>70000</v>
       </c>
     </row>
@@ -2665,13 +2503,19 @@
       <c r="G12" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="K12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12">
+        <v>76755</v>
+      </c>
     </row>
     <row r="13" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C13" s="4">
         <v>6</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E13" s="4">
         <v>48</v>
@@ -2681,6 +2525,12 @@
       </c>
       <c r="G13" s="4" t="s">
         <v>11</v>
+      </c>
+      <c r="K13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13">
+        <v>43323</v>
       </c>
     </row>
     <row r="14" spans="3:13" x14ac:dyDescent="0.25">
@@ -2688,7 +2538,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14" s="4">
         <v>60</v>
@@ -2698,6 +2548,15 @@
       </c>
       <c r="G14" s="4" t="s">
         <v>12</v>
+      </c>
+      <c r="K14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14">
+        <v>76755</v>
+      </c>
+      <c r="M14">
+        <v>98989</v>
       </c>
     </row>
     <row r="15" spans="3:13" x14ac:dyDescent="0.25">
@@ -2705,7 +2564,7 @@
         <v>8</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15" s="4">
         <v>40</v>
@@ -2715,6 +2574,12 @@
       </c>
       <c r="G15" s="4" t="s">
         <v>13</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15">
+        <v>56799</v>
       </c>
     </row>
     <row r="16" spans="3:13" x14ac:dyDescent="0.25">
@@ -2722,7 +2587,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" s="4">
         <v>89</v>
@@ -2733,13 +2598,14 @@
       <c r="G16" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="K16" s="9"/>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" s="4">
         <v>10</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" s="4">
         <v>56</v>
@@ -2767,39 +2633,32 @@
   <mergeCells count="1">
     <mergeCell ref="C2:K4"/>
   </mergeCells>
-  <conditionalFormatting sqref="F8:F17">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="greaterThan">
-      <formula>70000</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
-      <formula>80000</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="greaterThan">
-      <formula>80000</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="greaterThan">
-      <formula>90000</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="greaterThan">
-      <formula>" $L$7"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="greaterThan">
-      <formula>$L$7</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J18">
-    <cfRule type="cellIs" dxfId="23" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="11" operator="greaterThan">
       <formula>70000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14">
-    <cfRule type="cellIs" dxfId="22" priority="6" operator="greaterThan">
+  <conditionalFormatting sqref="K14:K16">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="greaterThan">
       <formula>$L$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15">
-    <cfRule type="cellIs" dxfId="21" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="8" operator="greaterThan">
       <formula>80000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8:F17">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThanOrEqual">
+      <formula>$L$12</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThanOrEqual">
+      <formula>$L$13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:D17">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="B">
+      <formula>NOT(ISERROR(SEARCH("B",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
